--- a/lecturer_availability.xlsx
+++ b/lecturer_availability.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Result" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Result" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1188,7 +1188,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C24" s="3" t="inlineStr">
+      <c r="C24" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1220,7 +1220,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C25" s="3" t="inlineStr">
+      <c r="C25" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1252,7 +1252,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C26" s="3" t="inlineStr">
+      <c r="C26" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1284,7 +1284,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C27" s="3" t="inlineStr">
+      <c r="C27" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1316,7 +1316,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C28" s="3" t="inlineStr">
+      <c r="C28" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1348,7 +1348,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C29" s="3" t="inlineStr">
+      <c r="C29" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1380,7 +1380,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C30" s="3" t="inlineStr">
+      <c r="C30" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1412,7 +1412,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C31" s="3" t="inlineStr">
+      <c r="C31" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1444,7 +1444,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C32" s="3" t="inlineStr">
+      <c r="C32" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1476,7 +1476,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C33" s="3" t="inlineStr">
+      <c r="C33" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1508,7 +1508,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C34" s="3" t="inlineStr">
+      <c r="C34" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1540,7 +1540,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C35" s="3" t="inlineStr">
+      <c r="C35" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1572,7 +1572,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C36" s="3" t="inlineStr">
+      <c r="C36" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1604,7 +1604,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C37" s="3" t="inlineStr">
+      <c r="C37" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1636,7 +1636,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C38" s="3" t="inlineStr">
+      <c r="C38" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1668,7 +1668,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C39" s="3" t="inlineStr">
+      <c r="C39" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1700,7 +1700,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C40" s="3" t="inlineStr">
+      <c r="C40" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1732,7 +1732,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C41" s="3" t="inlineStr">
+      <c r="C41" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1764,7 +1764,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C42" s="3" t="inlineStr">
+      <c r="C42" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1796,7 +1796,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C43" s="3" t="inlineStr">
+      <c r="C43" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1828,7 +1828,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C44" s="3" t="inlineStr">
+      <c r="C44" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1860,7 +1860,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C45" s="3" t="inlineStr">
+      <c r="C45" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1875,7 +1875,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F45" s="4" t="inlineStr">
+      <c r="F45" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1892,7 +1892,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C46" s="3" t="inlineStr">
+      <c r="C46" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1907,7 +1907,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F46" s="4" t="inlineStr">
+      <c r="F46" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1924,7 +1924,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C47" s="3" t="inlineStr">
+      <c r="C47" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1939,7 +1939,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F47" s="4" t="inlineStr">
+      <c r="F47" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1956,7 +1956,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C48" s="3" t="inlineStr">
+      <c r="C48" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1971,7 +1971,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F48" s="4" t="inlineStr">
+      <c r="F48" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1988,7 +1988,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C49" s="3" t="inlineStr">
+      <c r="C49" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2003,7 +2003,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F49" s="4" t="inlineStr">
+      <c r="F49" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2035,7 +2035,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F50" s="4" t="inlineStr">
+      <c r="F50" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2067,7 +2067,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F51" s="4" t="inlineStr">
+      <c r="F51" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2099,7 +2099,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F52" s="4" t="inlineStr">
+      <c r="F52" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2131,7 +2131,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F53" s="4" t="inlineStr">
+      <c r="F53" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2163,7 +2163,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F54" s="4" t="inlineStr">
+      <c r="F54" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2195,7 +2195,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F55" s="4" t="inlineStr">
+      <c r="F55" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2227,7 +2227,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F56" s="4" t="inlineStr">
+      <c r="F56" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2259,7 +2259,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F57" s="4" t="inlineStr">
+      <c r="F57" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2291,7 +2291,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F58" s="4" t="inlineStr">
+      <c r="F58" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2323,7 +2323,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F59" s="4" t="inlineStr">
+      <c r="F59" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2355,7 +2355,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F60" s="4" t="inlineStr">
+      <c r="F60" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2387,7 +2387,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F61" s="4" t="inlineStr">
+      <c r="F61" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2419,7 +2419,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F62" s="4" t="inlineStr">
+      <c r="F62" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2451,7 +2451,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F63" s="4" t="inlineStr">
+      <c r="F63" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2483,7 +2483,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F64" s="4" t="inlineStr">
+      <c r="F64" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2515,7 +2515,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F65" s="4" t="inlineStr">
+      <c r="F65" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2527,7 +2527,7 @@
           <t>13:15</t>
         </is>
       </c>
-      <c r="B66" s="3" t="inlineStr">
+      <c r="B66" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2547,7 +2547,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F66" s="4" t="inlineStr">
+      <c r="F66" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2559,7 +2559,7 @@
           <t>13:20</t>
         </is>
       </c>
-      <c r="B67" s="3" t="inlineStr">
+      <c r="B67" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2579,7 +2579,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F67" s="4" t="inlineStr">
+      <c r="F67" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2591,7 +2591,7 @@
           <t>13:25</t>
         </is>
       </c>
-      <c r="B68" s="3" t="inlineStr">
+      <c r="B68" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2611,7 +2611,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F68" s="4" t="inlineStr">
+      <c r="F68" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2623,7 +2623,7 @@
           <t>13:30</t>
         </is>
       </c>
-      <c r="B69" s="3" t="inlineStr">
+      <c r="B69" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2643,7 +2643,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F69" s="4" t="inlineStr">
+      <c r="F69" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2655,7 +2655,7 @@
           <t>13:35</t>
         </is>
       </c>
-      <c r="B70" s="3" t="inlineStr">
+      <c r="B70" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2675,7 +2675,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F70" s="4" t="inlineStr">
+      <c r="F70" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2687,7 +2687,7 @@
           <t>13:40</t>
         </is>
       </c>
-      <c r="B71" s="3" t="inlineStr">
+      <c r="B71" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2719,7 +2719,7 @@
           <t>13:45</t>
         </is>
       </c>
-      <c r="B72" s="3" t="inlineStr">
+      <c r="B72" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2751,7 +2751,7 @@
           <t>13:50</t>
         </is>
       </c>
-      <c r="B73" s="3" t="inlineStr">
+      <c r="B73" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2783,7 +2783,7 @@
           <t>13:55</t>
         </is>
       </c>
-      <c r="B74" s="3" t="inlineStr">
+      <c r="B74" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2815,7 +2815,7 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="B75" s="3" t="inlineStr">
+      <c r="B75" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2847,7 +2847,7 @@
           <t>14:05</t>
         </is>
       </c>
-      <c r="B76" s="3" t="inlineStr">
+      <c r="B76" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2879,7 +2879,7 @@
           <t>14:10</t>
         </is>
       </c>
-      <c r="B77" s="3" t="inlineStr">
+      <c r="B77" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2911,7 +2911,7 @@
           <t>14:15</t>
         </is>
       </c>
-      <c r="B78" s="3" t="inlineStr">
+      <c r="B78" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2943,7 +2943,7 @@
           <t>14:20</t>
         </is>
       </c>
-      <c r="B79" s="3" t="inlineStr">
+      <c r="B79" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2975,7 +2975,7 @@
           <t>14:25</t>
         </is>
       </c>
-      <c r="B80" s="3" t="inlineStr">
+      <c r="B80" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3007,7 +3007,7 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="B81" s="3" t="inlineStr">
+      <c r="B81" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3039,7 +3039,7 @@
           <t>14:35</t>
         </is>
       </c>
-      <c r="B82" s="3" t="inlineStr">
+      <c r="B82" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3071,7 +3071,7 @@
           <t>14:40</t>
         </is>
       </c>
-      <c r="B83" s="3" t="inlineStr">
+      <c r="B83" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3103,7 +3103,7 @@
           <t>14:45</t>
         </is>
       </c>
-      <c r="B84" s="3" t="inlineStr">
+      <c r="B84" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3135,7 +3135,7 @@
           <t>14:50</t>
         </is>
       </c>
-      <c r="B85" s="3" t="inlineStr">
+      <c r="B85" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3167,7 +3167,7 @@
           <t>14:55</t>
         </is>
       </c>
-      <c r="B86" s="3" t="inlineStr">
+      <c r="B86" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3199,7 +3199,7 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="B87" s="3" t="inlineStr">
+      <c r="B87" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3231,7 +3231,7 @@
           <t>15:05</t>
         </is>
       </c>
-      <c r="B88" s="3" t="inlineStr">
+      <c r="B88" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3263,7 +3263,7 @@
           <t>15:10</t>
         </is>
       </c>
-      <c r="B89" s="3" t="inlineStr">
+      <c r="B89" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3295,7 +3295,7 @@
           <t>15:15</t>
         </is>
       </c>
-      <c r="B90" s="3" t="inlineStr">
+      <c r="B90" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3327,7 +3327,7 @@
           <t>15:20</t>
         </is>
       </c>
-      <c r="B91" s="3" t="inlineStr">
+      <c r="B91" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3785,7 +3785,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="D105" s="4" t="inlineStr">
+      <c r="D105" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3817,7 +3817,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="D106" s="4" t="inlineStr">
+      <c r="D106" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3849,7 +3849,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="D107" s="4" t="inlineStr">
+      <c r="D107" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3881,7 +3881,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="D108" s="4" t="inlineStr">
+      <c r="D108" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3913,7 +3913,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="D109" s="4" t="inlineStr">
+      <c r="D109" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3945,7 +3945,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="D110" s="4" t="inlineStr">
+      <c r="D110" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3977,7 +3977,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="D111" s="4" t="inlineStr">
+      <c r="D111" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4009,7 +4009,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="D112" s="4" t="inlineStr">
+      <c r="D112" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4041,7 +4041,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="D113" s="4" t="inlineStr">
+      <c r="D113" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4073,7 +4073,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="D114" s="4" t="inlineStr">
+      <c r="D114" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4105,7 +4105,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="D115" s="4" t="inlineStr">
+      <c r="D115" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4137,7 +4137,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="D116" s="4" t="inlineStr">
+      <c r="D116" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4169,7 +4169,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="D117" s="4" t="inlineStr">
+      <c r="D117" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4201,7 +4201,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="D118" s="4" t="inlineStr">
+      <c r="D118" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4233,7 +4233,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="D119" s="4" t="inlineStr">
+      <c r="D119" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4265,7 +4265,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="D120" s="4" t="inlineStr">
+      <c r="D120" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4297,7 +4297,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="D121" s="4" t="inlineStr">
+      <c r="D121" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4329,7 +4329,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="D122" s="4" t="inlineStr">
+      <c r="D122" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4361,7 +4361,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="D123" s="4" t="inlineStr">
+      <c r="D123" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4393,7 +4393,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="D124" s="4" t="inlineStr">
+      <c r="D124" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4425,7 +4425,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="D125" s="4" t="inlineStr">
+      <c r="D125" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4457,7 +4457,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="D126" s="4" t="inlineStr">
+      <c r="D126" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4489,7 +4489,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="D127" s="4" t="inlineStr">
+      <c r="D127" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4521,7 +4521,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="D128" s="4" t="inlineStr">
+      <c r="D128" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4553,7 +4553,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="D129" s="4" t="inlineStr">
+      <c r="D129" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4585,7 +4585,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="D130" s="4" t="inlineStr">
+      <c r="D130" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>

--- a/lecturer_availability.xlsx
+++ b/lecturer_availability.xlsx
@@ -1188,7 +1188,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C24" s="4" t="inlineStr">
+      <c r="C24" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1220,7 +1220,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C25" s="4" t="inlineStr">
+      <c r="C25" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1252,7 +1252,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C26" s="4" t="inlineStr">
+      <c r="C26" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1284,7 +1284,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C27" s="4" t="inlineStr">
+      <c r="C27" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1316,7 +1316,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C28" s="4" t="inlineStr">
+      <c r="C28" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1348,7 +1348,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C29" s="4" t="inlineStr">
+      <c r="C29" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1380,7 +1380,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C30" s="4" t="inlineStr">
+      <c r="C30" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1412,7 +1412,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C31" s="4" t="inlineStr">
+      <c r="C31" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1444,7 +1444,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C32" s="4" t="inlineStr">
+      <c r="C32" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1476,7 +1476,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C33" s="4" t="inlineStr">
+      <c r="C33" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1508,7 +1508,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C34" s="4" t="inlineStr">
+      <c r="C34" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1540,7 +1540,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C35" s="4" t="inlineStr">
+      <c r="C35" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1572,7 +1572,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C36" s="4" t="inlineStr">
+      <c r="C36" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1604,7 +1604,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C37" s="4" t="inlineStr">
+      <c r="C37" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1636,7 +1636,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C38" s="4" t="inlineStr">
+      <c r="C38" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1668,7 +1668,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C39" s="4" t="inlineStr">
+      <c r="C39" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1700,7 +1700,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C40" s="4" t="inlineStr">
+      <c r="C40" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1732,7 +1732,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C41" s="4" t="inlineStr">
+      <c r="C41" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1764,7 +1764,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C42" s="4" t="inlineStr">
+      <c r="C42" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1796,7 +1796,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C43" s="4" t="inlineStr">
+      <c r="C43" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1828,7 +1828,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C44" s="4" t="inlineStr">
+      <c r="C44" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1860,7 +1860,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C45" s="4" t="inlineStr">
+      <c r="C45" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1892,7 +1892,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C46" s="4" t="inlineStr">
+      <c r="C46" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1924,7 +1924,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C47" s="4" t="inlineStr">
+      <c r="C47" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1956,7 +1956,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C48" s="4" t="inlineStr">
+      <c r="C48" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1966,7 +1966,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E48" s="3" t="inlineStr">
+      <c r="E48" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1988,7 +1988,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C49" s="4" t="inlineStr">
+      <c r="C49" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1998,7 +1998,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E49" s="3" t="inlineStr">
+      <c r="E49" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2030,7 +2030,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E50" s="3" t="inlineStr">
+      <c r="E50" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2062,7 +2062,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E51" s="3" t="inlineStr">
+      <c r="E51" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2094,7 +2094,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E52" s="3" t="inlineStr">
+      <c r="E52" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2126,7 +2126,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E53" s="3" t="inlineStr">
+      <c r="E53" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2158,7 +2158,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E54" s="3" t="inlineStr">
+      <c r="E54" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2190,7 +2190,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E55" s="3" t="inlineStr">
+      <c r="E55" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2222,7 +2222,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E56" s="3" t="inlineStr">
+      <c r="E56" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2254,7 +2254,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E57" s="3" t="inlineStr">
+      <c r="E57" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2286,7 +2286,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E58" s="3" t="inlineStr">
+      <c r="E58" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2318,7 +2318,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E59" s="3" t="inlineStr">
+      <c r="E59" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2350,7 +2350,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E60" s="3" t="inlineStr">
+      <c r="E60" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2382,7 +2382,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E61" s="3" t="inlineStr">
+      <c r="E61" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2414,7 +2414,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E62" s="3" t="inlineStr">
+      <c r="E62" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2446,7 +2446,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E63" s="3" t="inlineStr">
+      <c r="E63" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2478,7 +2478,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E64" s="3" t="inlineStr">
+      <c r="E64" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2510,7 +2510,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E65" s="3" t="inlineStr">
+      <c r="E65" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2527,7 +2527,7 @@
           <t>13:15</t>
         </is>
       </c>
-      <c r="B66" s="4" t="inlineStr">
+      <c r="B66" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2542,7 +2542,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E66" s="3" t="inlineStr">
+      <c r="E66" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2559,7 +2559,7 @@
           <t>13:20</t>
         </is>
       </c>
-      <c r="B67" s="4" t="inlineStr">
+      <c r="B67" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2574,7 +2574,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E67" s="3" t="inlineStr">
+      <c r="E67" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2591,7 +2591,7 @@
           <t>13:25</t>
         </is>
       </c>
-      <c r="B68" s="4" t="inlineStr">
+      <c r="B68" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2606,7 +2606,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E68" s="3" t="inlineStr">
+      <c r="E68" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2623,7 +2623,7 @@
           <t>13:30</t>
         </is>
       </c>
-      <c r="B69" s="4" t="inlineStr">
+      <c r="B69" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2638,7 +2638,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E69" s="3" t="inlineStr">
+      <c r="E69" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2655,7 +2655,7 @@
           <t>13:35</t>
         </is>
       </c>
-      <c r="B70" s="4" t="inlineStr">
+      <c r="B70" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2670,7 +2670,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E70" s="3" t="inlineStr">
+      <c r="E70" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2687,7 +2687,7 @@
           <t>13:40</t>
         </is>
       </c>
-      <c r="B71" s="4" t="inlineStr">
+      <c r="B71" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2702,7 +2702,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E71" s="3" t="inlineStr">
+      <c r="E71" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2719,7 +2719,7 @@
           <t>13:45</t>
         </is>
       </c>
-      <c r="B72" s="4" t="inlineStr">
+      <c r="B72" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2734,7 +2734,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E72" s="3" t="inlineStr">
+      <c r="E72" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2751,7 +2751,7 @@
           <t>13:50</t>
         </is>
       </c>
-      <c r="B73" s="4" t="inlineStr">
+      <c r="B73" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2766,7 +2766,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E73" s="3" t="inlineStr">
+      <c r="E73" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2783,7 +2783,7 @@
           <t>13:55</t>
         </is>
       </c>
-      <c r="B74" s="4" t="inlineStr">
+      <c r="B74" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2815,7 +2815,7 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="B75" s="4" t="inlineStr">
+      <c r="B75" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2847,7 +2847,7 @@
           <t>14:05</t>
         </is>
       </c>
-      <c r="B76" s="4" t="inlineStr">
+      <c r="B76" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2879,7 +2879,7 @@
           <t>14:10</t>
         </is>
       </c>
-      <c r="B77" s="4" t="inlineStr">
+      <c r="B77" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2911,7 +2911,7 @@
           <t>14:15</t>
         </is>
       </c>
-      <c r="B78" s="4" t="inlineStr">
+      <c r="B78" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2943,7 +2943,7 @@
           <t>14:20</t>
         </is>
       </c>
-      <c r="B79" s="4" t="inlineStr">
+      <c r="B79" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2975,7 +2975,7 @@
           <t>14:25</t>
         </is>
       </c>
-      <c r="B80" s="4" t="inlineStr">
+      <c r="B80" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3007,7 +3007,7 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="B81" s="4" t="inlineStr">
+      <c r="B81" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3039,7 +3039,7 @@
           <t>14:35</t>
         </is>
       </c>
-      <c r="B82" s="4" t="inlineStr">
+      <c r="B82" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3071,7 +3071,7 @@
           <t>14:40</t>
         </is>
       </c>
-      <c r="B83" s="4" t="inlineStr">
+      <c r="B83" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3103,7 +3103,7 @@
           <t>14:45</t>
         </is>
       </c>
-      <c r="B84" s="4" t="inlineStr">
+      <c r="B84" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3135,7 +3135,7 @@
           <t>14:50</t>
         </is>
       </c>
-      <c r="B85" s="4" t="inlineStr">
+      <c r="B85" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3167,7 +3167,7 @@
           <t>14:55</t>
         </is>
       </c>
-      <c r="B86" s="4" t="inlineStr">
+      <c r="B86" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3199,7 +3199,7 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="B87" s="4" t="inlineStr">
+      <c r="B87" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3231,7 +3231,7 @@
           <t>15:05</t>
         </is>
       </c>
-      <c r="B88" s="4" t="inlineStr">
+      <c r="B88" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3263,7 +3263,7 @@
           <t>15:10</t>
         </is>
       </c>
-      <c r="B89" s="4" t="inlineStr">
+      <c r="B89" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3295,7 +3295,7 @@
           <t>15:15</t>
         </is>
       </c>
-      <c r="B90" s="4" t="inlineStr">
+      <c r="B90" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3327,7 +3327,7 @@
           <t>15:20</t>
         </is>
       </c>
-      <c r="B91" s="4" t="inlineStr">
+      <c r="B91" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3731,7 +3731,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F103" s="3" t="inlineStr">
+      <c r="F103" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3763,7 +3763,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F104" s="3" t="inlineStr">
+      <c r="F104" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3795,7 +3795,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F105" s="3" t="inlineStr">
+      <c r="F105" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3827,7 +3827,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F106" s="3" t="inlineStr">
+      <c r="F106" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3859,7 +3859,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F107" s="3" t="inlineStr">
+      <c r="F107" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3891,7 +3891,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F108" s="3" t="inlineStr">
+      <c r="F108" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3923,7 +3923,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F109" s="3" t="inlineStr">
+      <c r="F109" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3955,7 +3955,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F110" s="3" t="inlineStr">
+      <c r="F110" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3987,7 +3987,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F111" s="3" t="inlineStr">
+      <c r="F111" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4019,7 +4019,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F112" s="3" t="inlineStr">
+      <c r="F112" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4051,7 +4051,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F113" s="3" t="inlineStr">
+      <c r="F113" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4083,7 +4083,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F114" s="3" t="inlineStr">
+      <c r="F114" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4115,7 +4115,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F115" s="3" t="inlineStr">
+      <c r="F115" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4147,7 +4147,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F116" s="3" t="inlineStr">
+      <c r="F116" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4179,7 +4179,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F117" s="3" t="inlineStr">
+      <c r="F117" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4211,7 +4211,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F118" s="3" t="inlineStr">
+      <c r="F118" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4243,7 +4243,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F119" s="3" t="inlineStr">
+      <c r="F119" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4275,7 +4275,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F120" s="3" t="inlineStr">
+      <c r="F120" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4307,7 +4307,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F121" s="3" t="inlineStr">
+      <c r="F121" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4339,7 +4339,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F122" s="3" t="inlineStr">
+      <c r="F122" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4371,7 +4371,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F123" s="3" t="inlineStr">
+      <c r="F123" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4403,7 +4403,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F124" s="3" t="inlineStr">
+      <c r="F124" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4435,7 +4435,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F125" s="3" t="inlineStr">
+      <c r="F125" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4467,7 +4467,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F126" s="3" t="inlineStr">
+      <c r="F126" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4499,7 +4499,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F127" s="3" t="inlineStr">
+      <c r="F127" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4531,7 +4531,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F128" s="3" t="inlineStr">
+      <c r="F128" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>

--- a/lecturer_availability.xlsx
+++ b/lecturer_availability.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Result" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Result" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -42,14 +42,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0000FF00"/>
-        <bgColor rgb="0000FF00"/>
+        <fgColor rgb="00FF0000"/>
+        <bgColor rgb="00FF0000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FF0000"/>
-        <bgColor rgb="00FF0000"/>
+        <fgColor rgb="0000FF00"/>
+        <bgColor rgb="0000FF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -474,7 +474,7 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>lecturer 1</t>
+          <t>lecturer 6</t>
         </is>
       </c>
     </row>
@@ -516,22 +516,22 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F3" s="3" t="inlineStr">
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -548,22 +548,22 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C4" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E4" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F4" s="3" t="inlineStr">
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -580,22 +580,22 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E5" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F5" s="3" t="inlineStr">
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F5" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -612,22 +612,22 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E6" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F6" s="3" t="inlineStr">
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F6" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -644,22 +644,22 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D7" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E7" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F7" s="3" t="inlineStr">
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D7" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E7" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F7" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -676,22 +676,22 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C8" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D8" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E8" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F8" s="3" t="inlineStr">
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D8" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E8" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F8" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -708,22 +708,22 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C9" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D9" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E9" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F9" s="3" t="inlineStr">
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F9" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -740,22 +740,22 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C10" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D10" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E10" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F10" s="3" t="inlineStr">
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F10" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -772,22 +772,22 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C11" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D11" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E11" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F11" s="3" t="inlineStr">
+      <c r="C11" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D11" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E11" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F11" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -804,12 +804,12 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C12" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D12" s="3" t="inlineStr">
+      <c r="C12" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D12" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -819,7 +819,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F12" s="3" t="inlineStr">
+      <c r="F12" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -836,22 +836,22 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C13" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D13" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E13" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F13" s="3" t="inlineStr">
+      <c r="C13" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D13" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F13" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -868,22 +868,22 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C14" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D14" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E14" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F14" s="3" t="inlineStr">
+      <c r="C14" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D14" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F14" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -900,22 +900,22 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C15" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D15" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E15" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F15" s="3" t="inlineStr">
+      <c r="C15" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D15" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F15" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -932,22 +932,22 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C16" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D16" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E16" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F16" s="3" t="inlineStr">
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D16" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F16" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -964,22 +964,22 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C17" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D17" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E17" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F17" s="3" t="inlineStr">
+      <c r="C17" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D17" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F17" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -996,22 +996,22 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C18" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D18" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E18" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F18" s="3" t="inlineStr">
+      <c r="C18" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D18" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F18" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1028,22 +1028,22 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C19" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D19" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E19" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F19" s="3" t="inlineStr">
+      <c r="C19" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D19" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F19" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1060,22 +1060,22 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C20" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D20" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E20" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F20" s="3" t="inlineStr">
+      <c r="C20" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D20" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E20" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F20" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1092,22 +1092,22 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C21" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D21" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E21" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F21" s="3" t="inlineStr">
+      <c r="C21" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D21" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F21" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1124,22 +1124,22 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C22" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D22" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E22" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F22" s="3" t="inlineStr">
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D22" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E22" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F22" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1156,22 +1156,22 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C23" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D23" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E23" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F23" s="3" t="inlineStr">
+      <c r="C23" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D23" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E23" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F23" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1188,22 +1188,22 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C24" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D24" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E24" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F24" s="3" t="inlineStr">
+      <c r="C24" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D24" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E24" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F24" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1220,22 +1220,22 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C25" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D25" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E25" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F25" s="3" t="inlineStr">
+      <c r="C25" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D25" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E25" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F25" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1252,22 +1252,22 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C26" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D26" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E26" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F26" s="3" t="inlineStr">
+      <c r="C26" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D26" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E26" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F26" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1284,22 +1284,22 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C27" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D27" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E27" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F27" s="3" t="inlineStr">
+      <c r="C27" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D27" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E27" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F27" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1316,22 +1316,22 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C28" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D28" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E28" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F28" s="3" t="inlineStr">
+      <c r="C28" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D28" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E28" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F28" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1348,22 +1348,22 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C29" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D29" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E29" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F29" s="3" t="inlineStr">
+      <c r="C29" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D29" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E29" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F29" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1375,17 +1375,17 @@
           <t>10:15</t>
         </is>
       </c>
-      <c r="B30" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C30" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D30" s="3" t="inlineStr">
+      <c r="B30" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C30" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D30" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1395,7 +1395,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F30" s="3" t="inlineStr">
+      <c r="F30" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1407,27 +1407,27 @@
           <t>10:20</t>
         </is>
       </c>
-      <c r="B31" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C31" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D31" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E31" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F31" s="3" t="inlineStr">
+      <c r="B31" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C31" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D31" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E31" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F31" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1439,27 +1439,27 @@
           <t>10:25</t>
         </is>
       </c>
-      <c r="B32" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C32" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D32" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E32" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F32" s="3" t="inlineStr">
+      <c r="B32" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C32" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D32" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E32" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F32" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1471,27 +1471,27 @@
           <t>10:30</t>
         </is>
       </c>
-      <c r="B33" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C33" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D33" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E33" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F33" s="3" t="inlineStr">
+      <c r="B33" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C33" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D33" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E33" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F33" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1503,17 +1503,17 @@
           <t>10:35</t>
         </is>
       </c>
-      <c r="B34" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C34" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D34" s="3" t="inlineStr">
+      <c r="B34" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C34" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D34" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1523,7 +1523,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F34" s="3" t="inlineStr">
+      <c r="F34" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1535,17 +1535,17 @@
           <t>10:40</t>
         </is>
       </c>
-      <c r="B35" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C35" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D35" s="3" t="inlineStr">
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C35" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D35" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1555,7 +1555,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F35" s="3" t="inlineStr">
+      <c r="F35" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1567,17 +1567,17 @@
           <t>10:45</t>
         </is>
       </c>
-      <c r="B36" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C36" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D36" s="3" t="inlineStr">
+      <c r="B36" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C36" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D36" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1587,7 +1587,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F36" s="3" t="inlineStr">
+      <c r="F36" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1599,17 +1599,17 @@
           <t>10:50</t>
         </is>
       </c>
-      <c r="B37" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C37" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D37" s="3" t="inlineStr">
+      <c r="B37" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C37" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D37" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1619,7 +1619,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F37" s="3" t="inlineStr">
+      <c r="F37" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1631,17 +1631,17 @@
           <t>10:55</t>
         </is>
       </c>
-      <c r="B38" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C38" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D38" s="3" t="inlineStr">
+      <c r="B38" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C38" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D38" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1651,7 +1651,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F38" s="3" t="inlineStr">
+      <c r="F38" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1663,17 +1663,17 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="B39" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C39" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D39" s="3" t="inlineStr">
+      <c r="B39" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C39" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D39" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1683,7 +1683,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F39" s="3" t="inlineStr">
+      <c r="F39" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1695,17 +1695,17 @@
           <t>11:05</t>
         </is>
       </c>
-      <c r="B40" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C40" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D40" s="3" t="inlineStr">
+      <c r="B40" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C40" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D40" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1715,7 +1715,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F40" s="3" t="inlineStr">
+      <c r="F40" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1727,17 +1727,17 @@
           <t>11:10</t>
         </is>
       </c>
-      <c r="B41" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C41" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D41" s="3" t="inlineStr">
+      <c r="B41" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C41" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D41" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1747,7 +1747,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F41" s="3" t="inlineStr">
+      <c r="F41" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1759,17 +1759,17 @@
           <t>11:15</t>
         </is>
       </c>
-      <c r="B42" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C42" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D42" s="3" t="inlineStr">
+      <c r="B42" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C42" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D42" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1779,7 +1779,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F42" s="3" t="inlineStr">
+      <c r="F42" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1791,17 +1791,17 @@
           <t>11:20</t>
         </is>
       </c>
-      <c r="B43" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C43" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D43" s="3" t="inlineStr">
+      <c r="B43" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C43" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D43" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1811,7 +1811,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F43" s="3" t="inlineStr">
+      <c r="F43" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1823,17 +1823,17 @@
           <t>11:25</t>
         </is>
       </c>
-      <c r="B44" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C44" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D44" s="3" t="inlineStr">
+      <c r="B44" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C44" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D44" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1843,7 +1843,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F44" s="3" t="inlineStr">
+      <c r="F44" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1855,17 +1855,17 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B45" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C45" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D45" s="3" t="inlineStr">
+      <c r="B45" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C45" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D45" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1875,7 +1875,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F45" s="3" t="inlineStr">
+      <c r="F45" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1887,17 +1887,17 @@
           <t>11:35</t>
         </is>
       </c>
-      <c r="B46" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C46" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D46" s="3" t="inlineStr">
+      <c r="B46" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C46" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D46" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1907,7 +1907,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F46" s="3" t="inlineStr">
+      <c r="F46" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1919,17 +1919,17 @@
           <t>11:40</t>
         </is>
       </c>
-      <c r="B47" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C47" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D47" s="3" t="inlineStr">
+      <c r="B47" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C47" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D47" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1939,7 +1939,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F47" s="3" t="inlineStr">
+      <c r="F47" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1951,27 +1951,27 @@
           <t>11:45</t>
         </is>
       </c>
-      <c r="B48" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C48" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D48" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E48" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F48" s="3" t="inlineStr">
+      <c r="B48" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C48" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D48" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E48" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F48" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1983,27 +1983,27 @@
           <t>11:50</t>
         </is>
       </c>
-      <c r="B49" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C49" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D49" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E49" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F49" s="3" t="inlineStr">
+      <c r="B49" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C49" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D49" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E49" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F49" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2015,27 +2015,27 @@
           <t>11:55</t>
         </is>
       </c>
-      <c r="B50" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C50" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D50" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E50" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F50" s="3" t="inlineStr">
+      <c r="B50" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C50" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D50" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E50" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F50" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2047,27 +2047,27 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B51" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C51" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D51" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E51" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F51" s="3" t="inlineStr">
+      <c r="B51" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C51" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D51" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E51" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F51" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2079,17 +2079,17 @@
           <t>12:05</t>
         </is>
       </c>
-      <c r="B52" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C52" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D52" s="3" t="inlineStr">
+      <c r="B52" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C52" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D52" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2099,7 +2099,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F52" s="3" t="inlineStr">
+      <c r="F52" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2111,17 +2111,17 @@
           <t>12:10</t>
         </is>
       </c>
-      <c r="B53" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C53" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D53" s="3" t="inlineStr">
+      <c r="B53" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C53" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D53" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2131,7 +2131,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F53" s="3" t="inlineStr">
+      <c r="F53" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2143,17 +2143,17 @@
           <t>12:15</t>
         </is>
       </c>
-      <c r="B54" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C54" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D54" s="3" t="inlineStr">
+      <c r="B54" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C54" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D54" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2163,7 +2163,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F54" s="3" t="inlineStr">
+      <c r="F54" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2175,27 +2175,27 @@
           <t>12:20</t>
         </is>
       </c>
-      <c r="B55" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C55" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D55" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E55" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F55" s="3" t="inlineStr">
+      <c r="B55" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C55" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D55" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E55" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F55" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2207,27 +2207,27 @@
           <t>12:25</t>
         </is>
       </c>
-      <c r="B56" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C56" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D56" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E56" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F56" s="3" t="inlineStr">
+      <c r="B56" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C56" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D56" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E56" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F56" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2239,27 +2239,27 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="B57" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C57" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D57" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E57" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F57" s="3" t="inlineStr">
+      <c r="B57" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C57" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D57" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E57" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F57" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2271,27 +2271,27 @@
           <t>12:35</t>
         </is>
       </c>
-      <c r="B58" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C58" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D58" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E58" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F58" s="3" t="inlineStr">
+      <c r="B58" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C58" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D58" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E58" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F58" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2303,27 +2303,27 @@
           <t>12:40</t>
         </is>
       </c>
-      <c r="B59" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C59" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D59" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E59" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F59" s="3" t="inlineStr">
+      <c r="B59" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C59" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D59" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E59" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F59" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2335,27 +2335,27 @@
           <t>12:45</t>
         </is>
       </c>
-      <c r="B60" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C60" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D60" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E60" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F60" s="3" t="inlineStr">
+      <c r="B60" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C60" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D60" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E60" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F60" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2367,27 +2367,27 @@
           <t>12:50</t>
         </is>
       </c>
-      <c r="B61" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C61" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D61" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E61" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F61" s="3" t="inlineStr">
+      <c r="B61" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C61" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D61" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E61" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F61" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2404,22 +2404,22 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C62" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D62" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E62" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F62" s="3" t="inlineStr">
+      <c r="C62" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D62" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E62" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F62" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2436,22 +2436,22 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C63" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D63" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E63" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F63" s="3" t="inlineStr">
+      <c r="C63" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D63" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E63" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F63" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2468,22 +2468,22 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C64" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D64" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E64" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F64" s="3" t="inlineStr">
+      <c r="C64" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D64" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E64" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F64" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2500,22 +2500,22 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C65" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D65" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E65" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F65" s="3" t="inlineStr">
+      <c r="C65" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D65" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E65" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F65" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2532,22 +2532,22 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C66" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D66" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E66" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F66" s="3" t="inlineStr">
+      <c r="C66" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D66" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E66" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F66" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2564,22 +2564,22 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C67" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D67" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E67" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F67" s="3" t="inlineStr">
+      <c r="C67" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D67" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E67" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F67" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2596,22 +2596,22 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C68" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D68" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E68" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F68" s="3" t="inlineStr">
+      <c r="C68" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D68" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E68" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F68" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2628,22 +2628,22 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C69" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D69" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E69" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F69" s="3" t="inlineStr">
+      <c r="C69" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D69" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E69" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F69" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2660,22 +2660,22 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C70" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D70" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E70" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F70" s="3" t="inlineStr">
+      <c r="C70" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D70" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E70" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F70" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2692,22 +2692,22 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C71" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D71" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E71" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F71" s="3" t="inlineStr">
+      <c r="C71" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D71" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E71" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F71" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2724,17 +2724,17 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C72" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D72" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E72" s="4" t="inlineStr">
+      <c r="C72" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D72" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E72" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2756,12 +2756,12 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C73" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D73" s="3" t="inlineStr">
+      <c r="C73" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D73" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2788,17 +2788,17 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C74" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D74" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E74" s="3" t="inlineStr">
+      <c r="C74" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D74" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E74" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2820,12 +2820,12 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C75" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D75" s="3" t="inlineStr">
+      <c r="C75" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D75" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2852,12 +2852,12 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C76" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D76" s="3" t="inlineStr">
+      <c r="C76" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D76" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2884,12 +2884,12 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C77" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D77" s="3" t="inlineStr">
+      <c r="C77" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D77" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2916,12 +2916,12 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C78" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D78" s="3" t="inlineStr">
+      <c r="C78" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D78" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2948,12 +2948,12 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C79" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D79" s="3" t="inlineStr">
+      <c r="C79" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D79" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2975,17 +2975,17 @@
           <t>14:25</t>
         </is>
       </c>
-      <c r="B80" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C80" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D80" s="3" t="inlineStr">
+      <c r="B80" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C80" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D80" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3007,17 +3007,17 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="B81" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C81" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D81" s="3" t="inlineStr">
+      <c r="B81" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C81" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D81" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3039,17 +3039,17 @@
           <t>14:35</t>
         </is>
       </c>
-      <c r="B82" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C82" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D82" s="3" t="inlineStr">
+      <c r="B82" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C82" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D82" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3071,17 +3071,17 @@
           <t>14:40</t>
         </is>
       </c>
-      <c r="B83" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C83" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D83" s="3" t="inlineStr">
+      <c r="B83" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C83" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D83" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3103,12 +3103,12 @@
           <t>14:45</t>
         </is>
       </c>
-      <c r="B84" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C84" s="3" t="inlineStr">
+      <c r="B84" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C84" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3135,12 +3135,12 @@
           <t>14:50</t>
         </is>
       </c>
-      <c r="B85" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C85" s="3" t="inlineStr">
+      <c r="B85" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C85" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3167,12 +3167,12 @@
           <t>14:55</t>
         </is>
       </c>
-      <c r="B86" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C86" s="3" t="inlineStr">
+      <c r="B86" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C86" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3199,12 +3199,12 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="B87" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C87" s="3" t="inlineStr">
+      <c r="B87" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C87" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3231,12 +3231,12 @@
           <t>15:05</t>
         </is>
       </c>
-      <c r="B88" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C88" s="3" t="inlineStr">
+      <c r="B88" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C88" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3263,12 +3263,12 @@
           <t>15:10</t>
         </is>
       </c>
-      <c r="B89" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C89" s="3" t="inlineStr">
+      <c r="B89" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C89" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3295,12 +3295,12 @@
           <t>15:15</t>
         </is>
       </c>
-      <c r="B90" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C90" s="3" t="inlineStr">
+      <c r="B90" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C90" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3315,7 +3315,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F90" s="3" t="inlineStr">
+      <c r="F90" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3327,12 +3327,12 @@
           <t>15:20</t>
         </is>
       </c>
-      <c r="B91" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C91" s="3" t="inlineStr">
+      <c r="B91" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C91" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3347,7 +3347,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F91" s="3" t="inlineStr">
+      <c r="F91" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3359,12 +3359,12 @@
           <t>15:25</t>
         </is>
       </c>
-      <c r="B92" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C92" s="3" t="inlineStr">
+      <c r="B92" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C92" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3379,7 +3379,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F92" s="3" t="inlineStr">
+      <c r="F92" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3391,12 +3391,12 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="B93" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C93" s="3" t="inlineStr">
+      <c r="B93" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C93" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3406,12 +3406,12 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E93" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F93" s="3" t="inlineStr">
+      <c r="E93" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F93" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3423,12 +3423,12 @@
           <t>15:35</t>
         </is>
       </c>
-      <c r="B94" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C94" s="3" t="inlineStr">
+      <c r="B94" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C94" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3438,12 +3438,12 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E94" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F94" s="3" t="inlineStr">
+      <c r="E94" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F94" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3455,12 +3455,12 @@
           <t>15:40</t>
         </is>
       </c>
-      <c r="B95" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C95" s="3" t="inlineStr">
+      <c r="B95" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C95" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3470,12 +3470,12 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E95" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F95" s="3" t="inlineStr">
+      <c r="E95" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F95" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3487,12 +3487,12 @@
           <t>15:45</t>
         </is>
       </c>
-      <c r="B96" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C96" s="3" t="inlineStr">
+      <c r="B96" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C96" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3502,12 +3502,12 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E96" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F96" s="3" t="inlineStr">
+      <c r="E96" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F96" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3519,12 +3519,12 @@
           <t>15:50</t>
         </is>
       </c>
-      <c r="B97" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C97" s="3" t="inlineStr">
+      <c r="B97" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C97" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3539,7 +3539,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F97" s="3" t="inlineStr">
+      <c r="F97" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3551,12 +3551,12 @@
           <t>15:55</t>
         </is>
       </c>
-      <c r="B98" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C98" s="3" t="inlineStr">
+      <c r="B98" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C98" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3571,7 +3571,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F98" s="3" t="inlineStr">
+      <c r="F98" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3583,12 +3583,12 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="B99" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C99" s="3" t="inlineStr">
+      <c r="B99" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C99" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3603,7 +3603,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F99" s="3" t="inlineStr">
+      <c r="F99" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3615,12 +3615,12 @@
           <t>16:05</t>
         </is>
       </c>
-      <c r="B100" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C100" s="3" t="inlineStr">
+      <c r="B100" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C100" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3635,7 +3635,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F100" s="3" t="inlineStr">
+      <c r="F100" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3647,12 +3647,12 @@
           <t>16:10</t>
         </is>
       </c>
-      <c r="B101" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C101" s="3" t="inlineStr">
+      <c r="B101" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C101" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3667,7 +3667,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F101" s="3" t="inlineStr">
+      <c r="F101" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3679,17 +3679,17 @@
           <t>16:15</t>
         </is>
       </c>
-      <c r="B102" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C102" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D102" s="3" t="inlineStr">
+      <c r="B102" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C102" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D102" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3699,7 +3699,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F102" s="3" t="inlineStr">
+      <c r="F102" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3711,17 +3711,17 @@
           <t>16:20</t>
         </is>
       </c>
-      <c r="B103" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C103" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D103" s="3" t="inlineStr">
+      <c r="B103" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C103" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D103" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3743,17 +3743,17 @@
           <t>16:25</t>
         </is>
       </c>
-      <c r="B104" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C104" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D104" s="3" t="inlineStr">
+      <c r="B104" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C104" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D104" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3775,7 +3775,7 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="B105" s="3" t="inlineStr">
+      <c r="B105" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3785,7 +3785,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="D105" s="3" t="inlineStr">
+      <c r="D105" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3807,7 +3807,7 @@
           <t>16:35</t>
         </is>
       </c>
-      <c r="B106" s="3" t="inlineStr">
+      <c r="B106" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3817,7 +3817,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="D106" s="3" t="inlineStr">
+      <c r="D106" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3839,7 +3839,7 @@
           <t>16:40</t>
         </is>
       </c>
-      <c r="B107" s="3" t="inlineStr">
+      <c r="B107" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3849,7 +3849,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="D107" s="3" t="inlineStr">
+      <c r="D107" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3871,7 +3871,7 @@
           <t>16:45</t>
         </is>
       </c>
-      <c r="B108" s="3" t="inlineStr">
+      <c r="B108" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3881,7 +3881,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="D108" s="3" t="inlineStr">
+      <c r="D108" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3903,7 +3903,7 @@
           <t>16:50</t>
         </is>
       </c>
-      <c r="B109" s="3" t="inlineStr">
+      <c r="B109" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3913,7 +3913,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="D109" s="3" t="inlineStr">
+      <c r="D109" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3935,7 +3935,7 @@
           <t>16:55</t>
         </is>
       </c>
-      <c r="B110" s="3" t="inlineStr">
+      <c r="B110" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3945,7 +3945,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="D110" s="3" t="inlineStr">
+      <c r="D110" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3967,7 +3967,7 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="B111" s="3" t="inlineStr">
+      <c r="B111" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3977,7 +3977,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="D111" s="3" t="inlineStr">
+      <c r="D111" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3999,7 +3999,7 @@
           <t>17:05</t>
         </is>
       </c>
-      <c r="B112" s="3" t="inlineStr">
+      <c r="B112" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4009,7 +4009,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="D112" s="3" t="inlineStr">
+      <c r="D112" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4031,7 +4031,7 @@
           <t>17:10</t>
         </is>
       </c>
-      <c r="B113" s="3" t="inlineStr">
+      <c r="B113" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4041,7 +4041,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="D113" s="3" t="inlineStr">
+      <c r="D113" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4073,7 +4073,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="D114" s="3" t="inlineStr">
+      <c r="D114" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4105,12 +4105,12 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="D115" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E115" s="3" t="inlineStr">
+      <c r="D115" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E115" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4137,12 +4137,12 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="D116" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E116" s="3" t="inlineStr">
+      <c r="D116" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E116" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4169,12 +4169,12 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="D117" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E117" s="3" t="inlineStr">
+      <c r="D117" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E117" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4201,7 +4201,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="D118" s="3" t="inlineStr">
+      <c r="D118" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4233,7 +4233,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="D119" s="3" t="inlineStr">
+      <c r="D119" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4265,7 +4265,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="D120" s="3" t="inlineStr">
+      <c r="D120" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4297,7 +4297,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="D121" s="3" t="inlineStr">
+      <c r="D121" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4329,7 +4329,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="D122" s="3" t="inlineStr">
+      <c r="D122" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4356,12 +4356,12 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C123" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D123" s="3" t="inlineStr">
+      <c r="C123" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D123" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4388,12 +4388,12 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C124" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D124" s="3" t="inlineStr">
+      <c r="C124" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D124" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4420,12 +4420,12 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C125" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D125" s="3" t="inlineStr">
+      <c r="C125" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D125" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4452,12 +4452,12 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C126" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D126" s="3" t="inlineStr">
+      <c r="C126" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D126" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4484,12 +4484,12 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C127" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D127" s="3" t="inlineStr">
+      <c r="C127" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D127" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4516,12 +4516,12 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C128" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D128" s="3" t="inlineStr">
+      <c r="C128" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D128" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4548,12 +4548,12 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C129" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D129" s="3" t="inlineStr">
+      <c r="C129" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D129" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4563,7 +4563,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F129" s="3" t="inlineStr">
+      <c r="F129" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4580,12 +4580,12 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C130" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D130" s="3" t="inlineStr">
+      <c r="C130" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D130" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4595,7 +4595,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F130" s="3" t="inlineStr">
+      <c r="F130" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4612,12 +4612,12 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C131" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D131" s="3" t="inlineStr">
+      <c r="C131" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D131" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4627,7 +4627,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F131" s="3" t="inlineStr">
+      <c r="F131" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4639,17 +4639,17 @@
           <t>18:45</t>
         </is>
       </c>
-      <c r="B132" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C132" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D132" s="3" t="inlineStr">
+      <c r="B132" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C132" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D132" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4659,7 +4659,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F132" s="3" t="inlineStr">
+      <c r="F132" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4671,17 +4671,17 @@
           <t>18:50</t>
         </is>
       </c>
-      <c r="B133" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C133" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D133" s="3" t="inlineStr">
+      <c r="B133" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C133" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D133" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4691,7 +4691,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F133" s="3" t="inlineStr">
+      <c r="F133" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4703,17 +4703,17 @@
           <t>18:55</t>
         </is>
       </c>
-      <c r="B134" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C134" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D134" s="3" t="inlineStr">
+      <c r="B134" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C134" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D134" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4723,7 +4723,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F134" s="3" t="inlineStr">
+      <c r="F134" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4735,17 +4735,17 @@
           <t>19:00</t>
         </is>
       </c>
-      <c r="B135" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C135" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D135" s="3" t="inlineStr">
+      <c r="B135" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C135" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D135" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4755,7 +4755,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F135" s="3" t="inlineStr">
+      <c r="F135" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4767,27 +4767,27 @@
           <t>19:05</t>
         </is>
       </c>
-      <c r="B136" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C136" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D136" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E136" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F136" s="3" t="inlineStr">
+      <c r="B136" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C136" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D136" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E136" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F136" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4799,27 +4799,27 @@
           <t>19:10</t>
         </is>
       </c>
-      <c r="B137" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C137" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D137" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E137" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F137" s="3" t="inlineStr">
+      <c r="B137" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C137" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D137" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E137" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F137" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4831,27 +4831,27 @@
           <t>19:15</t>
         </is>
       </c>
-      <c r="B138" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C138" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D138" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E138" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F138" s="3" t="inlineStr">
+      <c r="B138" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C138" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D138" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E138" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F138" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4863,27 +4863,27 @@
           <t>19:20</t>
         </is>
       </c>
-      <c r="B139" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C139" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D139" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E139" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F139" s="3" t="inlineStr">
+      <c r="B139" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C139" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D139" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E139" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F139" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4895,27 +4895,27 @@
           <t>19:25</t>
         </is>
       </c>
-      <c r="B140" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C140" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D140" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E140" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F140" s="3" t="inlineStr">
+      <c r="B140" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C140" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D140" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E140" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F140" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4927,27 +4927,27 @@
           <t>19:30</t>
         </is>
       </c>
-      <c r="B141" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C141" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D141" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E141" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F141" s="3" t="inlineStr">
+      <c r="B141" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C141" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D141" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E141" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F141" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4959,27 +4959,27 @@
           <t>19:35</t>
         </is>
       </c>
-      <c r="B142" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C142" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D142" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E142" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F142" s="3" t="inlineStr">
+      <c r="B142" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C142" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D142" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E142" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F142" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4991,27 +4991,27 @@
           <t>19:40</t>
         </is>
       </c>
-      <c r="B143" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C143" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D143" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E143" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F143" s="3" t="inlineStr">
+      <c r="B143" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C143" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D143" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E143" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F143" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -5023,27 +5023,27 @@
           <t>19:45</t>
         </is>
       </c>
-      <c r="B144" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C144" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D144" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E144" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F144" s="3" t="inlineStr">
+      <c r="B144" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C144" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D144" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E144" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F144" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -5055,27 +5055,27 @@
           <t>19:50</t>
         </is>
       </c>
-      <c r="B145" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C145" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D145" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E145" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F145" s="3" t="inlineStr">
+      <c r="B145" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C145" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D145" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E145" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F145" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -5087,27 +5087,27 @@
           <t>19:55</t>
         </is>
       </c>
-      <c r="B146" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C146" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D146" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E146" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F146" s="3" t="inlineStr">
+      <c r="B146" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C146" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D146" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E146" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F146" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
